--- a/x2022-08-Tahliye-HELTAS      18-01-2024 9 00/2024-10-tahliye/23-11-10-cevap HESAP.xlsx
+++ b/x2022-08-Tahliye-HELTAS      18-01-2024 9 00/2024-10-tahliye/23-11-10-cevap HESAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\x2022-08-Tahliye-HELTAS      18-01-2024 9 00\2024-10-tahliye\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2022-08-Tahliye-HELTAS      18-01-2024 9 00\2024-10-tahliye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E1BEF-B0F9-4743-A0BD-68CF80698DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771BDFB4-12B9-4E5C-9259-B9AD5CE01846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>HELTAŞ 2012 - 2022 KİRA TAHLİYE DVASI SÜREÇ</t>
   </si>
@@ -1048,6 +1048,9 @@
   </si>
   <si>
     <t>Davacı kiracı tarafından, kiralananın 31.12.2011 tarihinde tahliye edildiği iddia edilmesine rağmen bu iddia kanıtlanamamıştır. Davalı kiraya veren ise cevap dilekçesinde kira ilişkisinin halen devam ettiğini savunmuş olup, yargılama sırasında anahtarların 2013 yılı Nisan ayında teslim edildiğini belirtmiştir. Bu durumda icra takibine ve davaya konu aylara ait kira paralarının işlemiş kira alacağı olduğu ve davacının ödediğini ispat edemediği gerekçesiyle davanın reddine karar verilmesi gerekirken, mahkemece, kiraya verenin, kiracının göndermiş olduğu 29.3.2012 tarihli ihtarnamenin tebliğiyle kiralananın tahliye edildiğini öğrendiği, gerekçesiyle davanın reddine karar verilmesi doğru görülmemiştir (Yargıtay 6. HD - Karar : 2015/1634).</t>
+  </si>
+  <si>
+    <t>2019 da ihtarname ile mecurun tahliye edildiğinin bildirildiği iddiası ile dava istinafa taşındı - İstinaf lehimize karar verdi - 102,000 TL 5 yıllık kira atila balcı ya ödendi</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1109,6 +1112,13 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1166,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1219,6 +1229,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D67"/>
+  <dimension ref="B1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,160 +1889,175 @@
       <c r="B31" s="7">
         <v>45239</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="22">
+        <v>45566</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="D34" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+    <row r="38" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50"/>
+    <row r="50" spans="4:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="D51"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="4:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="4:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
+    <row r="56" spans="4:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="4:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
+    <row r="57" spans="4:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="4:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
+    <row r="58" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="4:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
+    <row r="59" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="4:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+    <row r="60" spans="4:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="4:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="D59" s="14" t="s">
+    <row r="61" spans="4:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="D61" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="4:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="D60" s="1" t="s">
+    <row r="62" spans="4:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="4:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+    <row r="63" spans="4:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
+    <row r="69" spans="4:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
         <v>81</v>
       </c>
     </row>
